--- a/xlsx/意識形態_intext.xlsx
+++ b/xlsx/意識形態_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Ideology</t>
   </si>
   <si>
-    <t>政策_政策_政治_意識形態</t>
+    <t>体育运动_体育运动_文化_意識形態</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
